--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.02710690258964</v>
+        <v>5.709516000000001</v>
       </c>
       <c r="H2">
-        <v>5.02710690258964</v>
+        <v>17.128548</v>
       </c>
       <c r="I2">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="J2">
-        <v>0.3815157802427009</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.5366641240786</v>
+        <v>55.49161133333333</v>
       </c>
       <c r="N2">
-        <v>10.5366641240786</v>
+        <v>166.474834</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9954988457613663</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9954988457613663</v>
       </c>
       <c r="Q2">
-        <v>52.96893694842416</v>
+        <v>316.830242773448</v>
       </c>
       <c r="R2">
-        <v>52.96893694842416</v>
+        <v>2851.472184961032</v>
       </c>
       <c r="S2">
-        <v>0.3815157802427009</v>
+        <v>0.3929789859291182</v>
       </c>
       <c r="T2">
-        <v>0.3815157802427009</v>
+        <v>0.3929789859291182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.0988685897999</v>
+        <v>5.709516000000001</v>
       </c>
       <c r="H3">
-        <v>3.0988685897999</v>
+        <v>17.128548</v>
       </c>
       <c r="I3">
-        <v>0.2351784616511894</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="J3">
-        <v>0.2351784616511894</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>10.5366641240786</v>
+        <v>0.015201</v>
       </c>
       <c r="N3">
-        <v>10.5366641240786</v>
+        <v>0.045603</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0002727002801111403</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0002727002801111403</v>
       </c>
       <c r="Q3">
-        <v>32.65173749537865</v>
+        <v>0.08679035271600001</v>
       </c>
       <c r="R3">
-        <v>32.65173749537865</v>
+        <v>0.7811131744440001</v>
       </c>
       <c r="S3">
-        <v>0.2351784616511894</v>
+        <v>0.0001076500289246456</v>
       </c>
       <c r="T3">
-        <v>0.2351784616511894</v>
+        <v>0.0001076500289246456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.24838043971577</v>
+        <v>5.709516000000001</v>
       </c>
       <c r="H4">
-        <v>1.24838043971577</v>
+        <v>17.128548</v>
       </c>
       <c r="I4">
-        <v>0.09474173649510836</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="J4">
-        <v>0.09474173649510836</v>
+        <v>0.394755842864453</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>10.5366641240786</v>
+        <v>0.2357046666666666</v>
       </c>
       <c r="N4">
-        <v>10.5366641240786</v>
+        <v>0.7071139999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.00422845395852266</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.00422845395852266</v>
       </c>
       <c r="Q4">
-        <v>13.15376539235462</v>
+        <v>1.345759565608</v>
       </c>
       <c r="R4">
-        <v>13.15376539235462</v>
+        <v>12.111836090472</v>
       </c>
       <c r="S4">
-        <v>0.09474173649510836</v>
+        <v>0.001669206906410145</v>
       </c>
       <c r="T4">
-        <v>0.09474173649510836</v>
+        <v>0.001669206906410145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,548 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.80231240751527</v>
+        <v>3.281282666666666</v>
       </c>
       <c r="H5">
-        <v>3.80231240751527</v>
+        <v>9.843847999999999</v>
       </c>
       <c r="I5">
-        <v>0.2885640216110013</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="J5">
-        <v>0.2885640216110013</v>
+        <v>0.2268678299100168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.5366641240786</v>
+        <v>55.49161133333333</v>
       </c>
       <c r="N5">
-        <v>10.5366641240786</v>
+        <v>166.474834</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9954988457613663</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9954988457613663</v>
       </c>
       <c r="Q5">
-        <v>40.06368873280508</v>
+        <v>182.0836624134702</v>
       </c>
       <c r="R5">
-        <v>40.06368873280508</v>
+        <v>1638.752961721232</v>
       </c>
       <c r="S5">
-        <v>0.2885640216110013</v>
+        <v>0.2258466628158077</v>
       </c>
       <c r="T5">
-        <v>0.2885640216110013</v>
+        <v>0.2258466628158077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.281282666666666</v>
+      </c>
+      <c r="H6">
+        <v>9.843847999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.2268678299100168</v>
+      </c>
+      <c r="J6">
+        <v>0.2268678299100168</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.015201</v>
+      </c>
+      <c r="N6">
+        <v>0.045603</v>
+      </c>
+      <c r="O6">
+        <v>0.0002727002801111403</v>
+      </c>
+      <c r="P6">
+        <v>0.0002727002801111403</v>
+      </c>
+      <c r="Q6">
+        <v>0.049878777816</v>
+      </c>
+      <c r="R6">
+        <v>0.4489090003439999</v>
+      </c>
+      <c r="S6">
+        <v>6.186692076466812E-05</v>
+      </c>
+      <c r="T6">
+        <v>6.186692076466812E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.281282666666666</v>
+      </c>
+      <c r="H7">
+        <v>9.843847999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2268678299100168</v>
+      </c>
+      <c r="J7">
+        <v>0.2268678299100168</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2357046666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.7071139999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.00422845395852266</v>
+      </c>
+      <c r="P7">
+        <v>0.00422845395852266</v>
+      </c>
+      <c r="Q7">
+        <v>0.7734136371857776</v>
+      </c>
+      <c r="R7">
+        <v>6.960722734671998</v>
+      </c>
+      <c r="S7">
+        <v>0.000959300173444456</v>
+      </c>
+      <c r="T7">
+        <v>0.0009593001734444561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.388848333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.166545</v>
+      </c>
+      <c r="I8">
+        <v>0.09602495105292475</v>
+      </c>
+      <c r="J8">
+        <v>0.09602495105292475</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>55.49161133333333</v>
+      </c>
+      <c r="N8">
+        <v>166.474834</v>
+      </c>
+      <c r="O8">
+        <v>0.9954988457613663</v>
+      </c>
+      <c r="P8">
+        <v>0.9954988457613663</v>
+      </c>
+      <c r="Q8">
+        <v>77.06943191428111</v>
+      </c>
+      <c r="R8">
+        <v>693.6248872285299</v>
+      </c>
+      <c r="S8">
+        <v>0.09559272793747828</v>
+      </c>
+      <c r="T8">
+        <v>0.09559272793747828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.388848333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.166545</v>
+      </c>
+      <c r="I9">
+        <v>0.09602495105292475</v>
+      </c>
+      <c r="J9">
+        <v>0.09602495105292475</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.015201</v>
+      </c>
+      <c r="N9">
+        <v>0.045603</v>
+      </c>
+      <c r="O9">
+        <v>0.0002727002801111403</v>
+      </c>
+      <c r="P9">
+        <v>0.0002727002801111403</v>
+      </c>
+      <c r="Q9">
+        <v>0.021111883515</v>
+      </c>
+      <c r="R9">
+        <v>0.190006951635</v>
+      </c>
+      <c r="S9">
+        <v>2.618603104979112E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.618603104979112E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.388848333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.166545</v>
+      </c>
+      <c r="I10">
+        <v>0.09602495105292475</v>
+      </c>
+      <c r="J10">
+        <v>0.09602495105292475</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2357046666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.7071139999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.00422845395852266</v>
+      </c>
+      <c r="P10">
+        <v>0.00422845395852266</v>
+      </c>
+      <c r="Q10">
+        <v>0.3273580334588889</v>
+      </c>
+      <c r="R10">
+        <v>2.94622230113</v>
+      </c>
+      <c r="S10">
+        <v>0.0004060370843966843</v>
+      </c>
+      <c r="T10">
+        <v>0.0004060370843966843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.083764</v>
+      </c>
+      <c r="H11">
+        <v>12.251292</v>
+      </c>
+      <c r="I11">
+        <v>0.2823513761726055</v>
+      </c>
+      <c r="J11">
+        <v>0.2823513761726055</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>55.49161133333333</v>
+      </c>
+      <c r="N11">
+        <v>166.474834</v>
+      </c>
+      <c r="O11">
+        <v>0.9954988457613663</v>
+      </c>
+      <c r="P11">
+        <v>0.9954988457613663</v>
+      </c>
+      <c r="Q11">
+        <v>226.6146446650587</v>
+      </c>
+      <c r="R11">
+        <v>2039.531801985528</v>
+      </c>
+      <c r="S11">
+        <v>0.2810804690789621</v>
+      </c>
+      <c r="T11">
+        <v>0.2810804690789621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.083764</v>
+      </c>
+      <c r="H12">
+        <v>12.251292</v>
+      </c>
+      <c r="I12">
+        <v>0.2823513761726055</v>
+      </c>
+      <c r="J12">
+        <v>0.2823513761726055</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015201</v>
+      </c>
+      <c r="N12">
+        <v>0.045603</v>
+      </c>
+      <c r="O12">
+        <v>0.0002727002801111403</v>
+      </c>
+      <c r="P12">
+        <v>0.0002727002801111403</v>
+      </c>
+      <c r="Q12">
+        <v>0.062077296564</v>
+      </c>
+      <c r="R12">
+        <v>0.558695669076</v>
+      </c>
+      <c r="S12">
+        <v>7.699729937203546E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.699729937203546E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.083764</v>
+      </c>
+      <c r="H13">
+        <v>12.251292</v>
+      </c>
+      <c r="I13">
+        <v>0.2823513761726055</v>
+      </c>
+      <c r="J13">
+        <v>0.2823513761726055</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2357046666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.7071139999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.00422845395852266</v>
+      </c>
+      <c r="P13">
+        <v>0.00422845395852266</v>
+      </c>
+      <c r="Q13">
+        <v>0.9625622323653333</v>
+      </c>
+      <c r="R13">
+        <v>8.663060091287999</v>
+      </c>
+      <c r="S13">
+        <v>0.001193909794271374</v>
+      </c>
+      <c r="T13">
+        <v>0.001193909794271374</v>
       </c>
     </row>
   </sheetData>
